--- a/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
+++ b/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/jomolesk_microsoft_com/Documents/Blueprint/Architecture/IaaS web applicaiton for FedRAMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aisadmin\Documents\GitHub\azure-blueprint\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Control Requirements'!$A$2:$I$705</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="1593">
   <si>
     <t>AC-1</t>
   </si>
@@ -4787,12 +4787,33 @@
   </si>
   <si>
     <t>Reference Architecture Implementation</t>
+  </si>
+  <si>
+    <t>Implementation Validated</t>
+  </si>
+  <si>
+    <t>Validation Comments</t>
+  </si>
+  <si>
+    <t>Logon attempt was provided for more than 3 times.</t>
+  </si>
+  <si>
+    <t>Account worked fine after 5 wrong attempts</t>
+  </si>
+  <si>
+    <t>Inactivity lock didn't worked. Group Policy settings not working.</t>
+  </si>
+  <si>
+    <t>Please refer to AC-11.a</t>
+  </si>
+  <si>
+    <t>[TBD]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5446,7 +5467,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,13 +5800,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I702"/>
+  <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E602" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5800,7 +5821,7 @@
     <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5811,7 +5832,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>423</v>
       </c>
@@ -5839,8 +5860,14 @@
       <c r="I2" s="21" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5867,7 +5894,7 @@
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -5892,7 +5919,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -5915,7 +5942,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -5938,7 +5965,7 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -5965,7 +5992,7 @@
       </c>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -5992,7 +6019,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -6019,7 +6046,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -6044,7 +6071,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -6071,7 +6098,7 @@
       </c>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -6098,7 +6125,7 @@
       </c>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -6121,7 +6148,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -6148,7 +6175,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -6173,7 +6200,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -6596,7 +6623,7 @@
       </c>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>23</v>
       </c>
@@ -6619,7 +6646,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
@@ -6642,7 +6669,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -6667,7 +6694,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -6692,7 +6719,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -6719,7 +6746,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -6746,7 +6773,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>28</v>
       </c>
@@ -6773,7 +6800,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
@@ -6800,7 +6827,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -6823,7 +6850,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -6846,7 +6873,7 @@
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
@@ -6871,7 +6898,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
@@ -6896,7 +6923,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -6921,7 +6948,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -6945,8 +6972,14 @@
       <c r="I46" s="17" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
@@ -6970,8 +7003,14 @@
       <c r="I47" s="17" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>39</v>
       </c>
@@ -6996,7 +7035,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
@@ -7020,8 +7059,11 @@
       <c r="I49" s="17" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>40</v>
       </c>
@@ -7045,8 +7087,11 @@
       <c r="I50" s="17" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
@@ -7069,7 +7114,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>41</v>
       </c>
@@ -7093,8 +7138,11 @@
       <c r="I52" s="17" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>42</v>
       </c>
@@ -7118,8 +7166,14 @@
       <c r="I53" s="17" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>42</v>
       </c>
@@ -7143,8 +7197,14 @@
       <c r="I54" s="17" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
@@ -7168,8 +7228,14 @@
       <c r="I55" s="17" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>44</v>
       </c>
@@ -7193,8 +7259,11 @@
       <c r="I56" s="17" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
@@ -7218,8 +7287,11 @@
       <c r="I57" s="17" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>45</v>
       </c>
@@ -7243,8 +7315,11 @@
       <c r="I58" s="17" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>46</v>
       </c>
@@ -7267,7 +7342,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
@@ -7290,7 +7365,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>29</v>
       </c>
@@ -7317,7 +7392,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>29</v>
       </c>
@@ -7344,7 +7419,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>47</v>
       </c>
@@ -7369,7 +7444,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>48</v>
       </c>
@@ -7394,7 +7469,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>49</v>
       </c>
@@ -7418,8 +7493,11 @@
       <c r="I65" s="17" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>51</v>
       </c>
@@ -7446,7 +7524,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>51</v>
       </c>
@@ -7473,7 +7551,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
@@ -7498,7 +7576,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -7523,7 +7601,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -7548,7 +7626,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>54</v>
       </c>
@@ -7573,7 +7651,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>55</v>
       </c>
@@ -7598,7 +7676,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>57</v>
       </c>
@@ -7623,7 +7701,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>58</v>
       </c>
@@ -7648,7 +7726,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
@@ -7673,7 +7751,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>56</v>
       </c>
@@ -7698,7 +7776,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>59</v>
       </c>
@@ -7723,7 +7801,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>60</v>
       </c>
@@ -7750,7 +7828,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>60</v>
       </c>
@@ -7777,7 +7855,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>61</v>
       </c>
@@ -20479,7 +20557,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
         <v>355</v>
       </c>
@@ -20503,8 +20581,11 @@
       <c r="I593" s="17" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="594" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="J593" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
         <v>356</v>
       </c>
@@ -20529,7 +20610,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
         <v>50</v>
       </c>
@@ -20553,8 +20634,11 @@
       <c r="I595" s="17" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="596" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="J595" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
         <v>50</v>
       </c>
@@ -20578,8 +20662,11 @@
       <c r="I596" s="17" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="597" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="J596" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
         <v>50</v>
       </c>
@@ -20603,8 +20690,11 @@
       <c r="I597" s="17" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="598" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J597" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
         <v>357</v>
       </c>
@@ -20628,8 +20718,11 @@
       <c r="I598" s="17" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="599" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="J598" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
         <v>358</v>
       </c>
@@ -20654,7 +20747,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="s">
         <v>358</v>
       </c>
@@ -20679,7 +20772,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
         <v>358</v>
       </c>
@@ -20704,7 +20797,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
         <v>358</v>
       </c>
@@ -20727,7 +20820,7 @@
       </c>
       <c r="I602" s="17"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
         <v>358</v>
       </c>
@@ -20750,7 +20843,7 @@
       </c>
       <c r="I603" s="17"/>
     </row>
-    <row r="604" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="s">
         <v>359</v>
       </c>
@@ -20774,8 +20867,11 @@
       <c r="I604" s="17" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="605" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J604" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
         <v>360</v>
       </c>
@@ -20802,7 +20898,7 @@
       </c>
       <c r="I605" s="17"/>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
         <v>361</v>
       </c>
@@ -20825,7 +20921,7 @@
       </c>
       <c r="I606" s="17"/>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
         <v>362</v>
       </c>
@@ -20848,7 +20944,7 @@
       </c>
       <c r="I607" s="17"/>
     </row>
-    <row r="608" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
         <v>363</v>
       </c>
@@ -20871,6 +20967,9 @@
       </c>
       <c r="I608" s="17" t="s">
         <v>1307</v>
+      </c>
+      <c r="J608" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="135" x14ac:dyDescent="0.25">

--- a/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
+++ b/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="1593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="1593">
   <si>
     <t>AC-1</t>
   </si>
@@ -5467,7 +5467,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,10 +5803,10 @@
   <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E602" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="J200" sqref="J200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5819,6 +5819,7 @@
     <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,6 +6071,9 @@
       <c r="I10" s="17" t="s">
         <v>1438</v>
       </c>
+      <c r="J10" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -6198,6 +6202,9 @@
       </c>
       <c r="I15" s="17" t="s">
         <v>1439</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -6225,7 +6232,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -6250,7 +6257,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -6274,8 +6281,11 @@
       <c r="I18" s="17" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -6302,7 +6312,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -6375,7 +6385,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -6400,7 +6410,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -6425,7 +6435,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
@@ -6474,8 +6484,11 @@
       <c r="I26" s="17" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -6499,8 +6512,11 @@
       <c r="I27" s="17" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
@@ -6527,7 +6543,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -6552,7 +6568,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -6577,7 +6593,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -6600,7 +6616,7 @@
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>22</v>
       </c>
@@ -7443,6 +7459,9 @@
       <c r="I63" s="17" t="s">
         <v>1454</v>
       </c>
+      <c r="J63" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -8312,7 +8331,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>71</v>
       </c>
@@ -8339,7 +8358,7 @@
       </c>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>72</v>
       </c>
@@ -8366,7 +8385,7 @@
       </c>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>72</v>
       </c>
@@ -8393,7 +8412,7 @@
       </c>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>73</v>
       </c>
@@ -8420,7 +8439,7 @@
       </c>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>36</v>
       </c>
@@ -8444,8 +8463,11 @@
       <c r="I101" s="17" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>36</v>
       </c>
@@ -8472,7 +8494,7 @@
       </c>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>36</v>
       </c>
@@ -8497,7 +8519,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>36</v>
       </c>
@@ -8521,8 +8543,11 @@
       <c r="I104" s="17" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>74</v>
       </c>
@@ -8549,7 +8574,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>75</v>
       </c>
@@ -8573,8 +8598,11 @@
       <c r="I106" s="17" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>76</v>
       </c>
@@ -8599,7 +8627,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>77</v>
       </c>
@@ -8624,7 +8652,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>78</v>
       </c>
@@ -8649,7 +8677,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>79</v>
       </c>
@@ -8674,7 +8702,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>79</v>
       </c>
@@ -8699,7 +8727,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>80</v>
       </c>
@@ -9120,7 +9148,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>93</v>
       </c>
@@ -9145,7 +9173,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>94</v>
       </c>
@@ -9170,7 +9198,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>95</v>
       </c>
@@ -9195,7 +9223,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>96</v>
       </c>
@@ -9220,7 +9248,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -9245,7 +9273,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="300" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>98</v>
       </c>
@@ -9270,7 +9298,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>99</v>
       </c>
@@ -9295,7 +9323,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>100</v>
       </c>
@@ -9319,8 +9347,11 @@
       <c r="I136" s="17" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="K136" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>100</v>
       </c>
@@ -9344,8 +9375,11 @@
       <c r="I137" s="17" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>100</v>
       </c>
@@ -9369,8 +9403,11 @@
       <c r="I138" s="17" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>101</v>
       </c>
@@ -9395,7 +9432,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>102</v>
       </c>
@@ -9420,7 +9457,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>103</v>
       </c>
@@ -9447,7 +9484,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>62</v>
       </c>
@@ -9470,7 +9507,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>62</v>
       </c>
@@ -9493,7 +9530,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>62</v>
       </c>
@@ -10662,7 +10699,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>126</v>
       </c>
@@ -10682,7 +10719,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>127</v>
       </c>
@@ -10702,7 +10739,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>128</v>
       </c>
@@ -10722,7 +10759,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>129</v>
       </c>
@@ -10742,7 +10779,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>131</v>
       </c>
@@ -10762,7 +10799,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>132</v>
       </c>
@@ -10782,7 +10819,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>122</v>
       </c>
@@ -10807,7 +10844,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>134</v>
       </c>
@@ -10831,8 +10868,11 @@
       <c r="I200" s="17" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>135</v>
       </c>
@@ -10852,7 +10892,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>136</v>
       </c>
@@ -10877,7 +10917,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>137</v>
       </c>
@@ -10898,7 +10938,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>137</v>
       </c>
@@ -10918,7 +10958,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>31</v>
       </c>
@@ -10943,7 +10983,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>31</v>
       </c>
@@ -10968,7 +11008,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>31</v>
       </c>
@@ -10990,7 +11030,7 @@
       </c>
       <c r="I207" s="12"/>
     </row>
-    <row r="208" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>31</v>
       </c>

--- a/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
+++ b/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="1593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4906" uniqueCount="1594">
   <si>
     <t>AC-1</t>
   </si>
@@ -4808,6 +4808,9 @@
   </si>
   <si>
     <t>[TBD]</t>
+  </si>
+  <si>
+    <t>Extension of role-based schemes not validated yet.</t>
   </si>
 </sst>
 </file>
@@ -5467,7 +5470,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,10 +5806,10 @@
   <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J200" sqref="J200"/>
+      <selection pane="bottomRight" activeCell="K199" sqref="K199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6336,6 +6339,9 @@
       <c r="I20" s="17" t="s">
         <v>1481</v>
       </c>
+      <c r="J20" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -6567,6 +6573,9 @@
       <c r="I29" s="17" t="s">
         <v>1456</v>
       </c>
+      <c r="J29" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -6734,6 +6743,9 @@
       <c r="I36" s="17" t="s">
         <v>1573</v>
       </c>
+      <c r="J36" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -6913,6 +6925,9 @@
       <c r="I43" s="17" t="s">
         <v>1446</v>
       </c>
+      <c r="J43" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -6962,6 +6977,9 @@
       </c>
       <c r="I45" s="17" t="s">
         <v>1445</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -9197,6 +9215,9 @@
       <c r="I130" s="17" t="s">
         <v>1464</v>
       </c>
+      <c r="J130" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="131" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
@@ -9271,6 +9292,9 @@
       </c>
       <c r="I133" s="17" t="s">
         <v>1466</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="300" x14ac:dyDescent="0.25">
@@ -10699,7 +10723,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>126</v>
       </c>
@@ -10719,7 +10743,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>127</v>
       </c>
@@ -10739,7 +10763,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>128</v>
       </c>
@@ -10759,7 +10783,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>129</v>
       </c>
@@ -10779,7 +10803,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>131</v>
       </c>
@@ -10799,7 +10823,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>132</v>
       </c>
@@ -10819,7 +10843,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>122</v>
       </c>
@@ -10843,8 +10867,14 @@
       <c r="I199" s="17" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>134</v>
       </c>
@@ -10872,7 +10902,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>135</v>
       </c>
@@ -10892,7 +10922,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>136</v>
       </c>
@@ -10917,7 +10947,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>137</v>
       </c>
@@ -10938,7 +10968,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>137</v>
       </c>
@@ -10958,7 +10988,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>31</v>
       </c>
@@ -10983,7 +11013,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>31</v>
       </c>
@@ -11008,7 +11038,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>31</v>
       </c>
@@ -11030,7 +11060,7 @@
       </c>
       <c r="I207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>31</v>
       </c>

--- a/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
+++ b/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4906" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4928" uniqueCount="1597">
   <si>
     <t>AC-1</t>
   </si>
@@ -4811,6 +4811,15 @@
   </si>
   <si>
     <t>Extension of role-based schemes not validated yet.</t>
+  </si>
+  <si>
+    <t>OMS set to 31 days of Data Retention [Bug 186 still active]</t>
+  </si>
+  <si>
+    <t>No Alert Rules found for reaching maximum Audit record storage capacity.</t>
+  </si>
+  <si>
+    <t>[Bug 186 still active]</t>
   </si>
 </sst>
 </file>
@@ -5470,7 +5479,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5806,10 +5815,10 @@
   <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K199" sqref="K199"/>
+      <selection pane="bottomRight" activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8349,7 +8358,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>71</v>
       </c>
@@ -8376,7 +8385,7 @@
       </c>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>72</v>
       </c>
@@ -8403,7 +8412,7 @@
       </c>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>72</v>
       </c>
@@ -8430,7 +8439,7 @@
       </c>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>73</v>
       </c>
@@ -8457,7 +8466,7 @@
       </c>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>36</v>
       </c>
@@ -8485,7 +8494,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>36</v>
       </c>
@@ -8512,7 +8521,7 @@
       </c>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>36</v>
       </c>
@@ -8537,7 +8546,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>36</v>
       </c>
@@ -8565,7 +8574,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>74</v>
       </c>
@@ -8592,7 +8601,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>75</v>
       </c>
@@ -8620,7 +8629,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>76</v>
       </c>
@@ -8645,7 +8654,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>77</v>
       </c>
@@ -8670,7 +8679,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>78</v>
       </c>
@@ -8694,8 +8703,14 @@
       <c r="I109" s="17" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>79</v>
       </c>
@@ -8720,7 +8735,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>79</v>
       </c>
@@ -8745,7 +8760,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>80</v>
       </c>
@@ -8769,8 +8784,14 @@
       <c r="I112" s="17" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>81</v>
       </c>
@@ -8795,7 +8816,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>82</v>
       </c>
@@ -8818,7 +8839,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>82</v>
       </c>
@@ -8841,7 +8862,7 @@
       </c>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>83</v>
       </c>
@@ -8868,7 +8889,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>84</v>
       </c>
@@ -8892,8 +8913,11 @@
       <c r="I117" s="17" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>85</v>
       </c>
@@ -8917,8 +8941,11 @@
       <c r="I118" s="17" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>86</v>
       </c>
@@ -8943,7 +8970,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>87</v>
       </c>
@@ -8968,7 +8995,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>88</v>
       </c>
@@ -8993,7 +9020,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>89</v>
       </c>
@@ -9016,7 +9043,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>90</v>
       </c>
@@ -9040,8 +9067,11 @@
       <c r="I123" s="17" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>90</v>
       </c>
@@ -9065,8 +9095,11 @@
       <c r="I124" s="17" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>91</v>
       </c>
@@ -9090,8 +9123,11 @@
       <c r="I125" s="17" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>92</v>
       </c>
@@ -9116,7 +9152,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>92</v>
       </c>
@@ -9141,7 +9177,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>93</v>
       </c>
@@ -9243,6 +9279,9 @@
       <c r="I131" s="17" t="s">
         <v>1465</v>
       </c>
+      <c r="J131" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="132" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
@@ -9268,6 +9307,9 @@
       <c r="I132" s="17" t="s">
         <v>1475</v>
       </c>
+      <c r="J132" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="133" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
@@ -9346,6 +9388,12 @@
       <c r="I135" s="17" t="s">
         <v>1467</v>
       </c>
+      <c r="J135" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="136" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
@@ -9454,6 +9502,9 @@
       </c>
       <c r="I139" s="17" t="s">
         <v>1468</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -10946,6 +10997,9 @@
       <c r="I202" s="17" t="s">
         <v>1497</v>
       </c>
+      <c r="J202" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
@@ -11012,6 +11066,9 @@
       <c r="I205" s="17" t="s">
         <v>1498</v>
       </c>
+      <c r="J205" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="206" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
@@ -11037,6 +11094,9 @@
       <c r="I206" s="17" t="s">
         <v>1499</v>
       </c>
+      <c r="J206" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -11084,8 +11144,11 @@
       <c r="I208" s="17" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>138</v>
       </c>
@@ -11109,8 +11172,11 @@
       <c r="I209" s="17" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>139</v>
       </c>
@@ -11135,7 +11201,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>110</v>
       </c>
@@ -11159,8 +11225,11 @@
       <c r="I211" s="17" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>110</v>
       </c>
@@ -11184,8 +11253,11 @@
       <c r="I212" s="17" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>140</v>
       </c>
@@ -11208,7 +11280,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>140</v>
       </c>
@@ -11231,7 +11303,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>141</v>
       </c>
@@ -11254,7 +11326,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>142</v>
       </c>
@@ -11275,7 +11347,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>142</v>
       </c>
@@ -11298,7 +11370,7 @@
       </c>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>142</v>
       </c>
@@ -11318,7 +11390,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>143</v>
       </c>
@@ -11343,7 +11415,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>143</v>
       </c>
@@ -11368,7 +11440,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>144</v>
       </c>
@@ -11393,7 +11465,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>145</v>
       </c>
@@ -11418,7 +11490,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>147</v>
       </c>
@@ -11441,7 +11513,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>147</v>
       </c>
@@ -21832,7 +21904,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="9" t="s">
         <v>387</v>
       </c>
@@ -21852,7 +21924,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="642" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A642" s="9" t="s">
         <v>387</v>
       </c>
@@ -21876,8 +21948,11 @@
       <c r="I642" s="17" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J642" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="9" t="s">
         <v>387</v>
       </c>
@@ -21897,7 +21972,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="644" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A644" s="9" t="s">
         <v>388</v>
       </c>
@@ -21922,7 +21997,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A645" s="9" t="s">
         <v>389</v>
       </c>
@@ -21947,7 +22022,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="9" t="s">
         <v>390</v>
       </c>
@@ -21970,7 +22045,7 @@
       </c>
       <c r="I646" s="17"/>
     </row>
-    <row r="647" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A647" s="9" t="s">
         <v>390</v>
       </c>
@@ -21997,7 +22072,7 @@
       </c>
       <c r="I647" s="17"/>
     </row>
-    <row r="648" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A648" s="9" t="s">
         <v>21</v>
       </c>
@@ -22022,7 +22097,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="649" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
         <v>21</v>
       </c>
@@ -22047,7 +22122,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="650" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
         <v>21</v>
       </c>
@@ -22072,7 +22147,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="9" t="s">
         <v>21</v>
       </c>
@@ -22092,7 +22167,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="652" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A652" s="9" t="s">
         <v>391</v>
       </c>
@@ -22117,7 +22192,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="653" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A653" s="9" t="s">
         <v>392</v>
       </c>
@@ -22142,7 +22217,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="654" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A654" s="9" t="s">
         <v>394</v>
       </c>
@@ -22167,7 +22242,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="s">
         <v>19</v>
       </c>
@@ -22192,7 +22267,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="656" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
         <v>19</v>
       </c>

--- a/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
+++ b/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4928" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="1597">
   <si>
     <t>AC-1</t>
   </si>
@@ -5479,7 +5479,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5815,10 +5815,10 @@
   <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J132" sqref="J132"/>
+      <selection pane="bottomRight" activeCell="J316" sqref="J316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6268,6 +6268,9 @@
       <c r="I17" s="17" t="s">
         <v>1440</v>
       </c>
+      <c r="J17" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -13491,7 +13494,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>205</v>
       </c>
@@ -13514,7 +13517,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>206</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>206</v>
       </c>
@@ -13560,7 +13563,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>206</v>
       </c>
@@ -13583,7 +13586,7 @@
       </c>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>206</v>
       </c>
@@ -13608,7 +13611,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>206</v>
       </c>
@@ -13633,7 +13636,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>207</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>208</v>
       </c>
@@ -13679,7 +13682,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>208</v>
       </c>
@@ -13704,7 +13707,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>208</v>
       </c>
@@ -13729,7 +13732,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>208</v>
       </c>
@@ -13750,7 +13753,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>208</v>
       </c>
@@ -13774,8 +13777,11 @@
       <c r="I316" s="17" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>208</v>
       </c>
@@ -13796,7 +13802,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>208</v>
       </c>
@@ -13821,7 +13827,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>208</v>
       </c>
@@ -13846,7 +13852,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>208</v>
       </c>

--- a/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
+++ b/docs/IaaS web application for FedRAMP High - Control implementation matrix v0.2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="1597">
   <si>
     <t>AC-1</t>
   </si>
@@ -5321,7 +5321,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5392,14 +5392,8 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5479,7 +5473,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF90E4-E62D-4C50-9560-9C4C7540EC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5815,10 +5809,10 @@
   <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J316" sqref="J316"/>
+      <selection pane="bottomRight" activeCell="J199" sqref="J199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5828,9 +5822,10 @@
     <col min="3" max="3" width="56.28515625" style="5" customWidth="1"/>
     <col min="4" max="5" width="10" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5840,12 +5835,14 @@
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>423</v>
       </c>
@@ -5873,10 +5870,10 @@
       <c r="I2" s="21" t="s">
         <v>1585</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>1586</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>1587</v>
       </c>
     </row>
@@ -10924,7 +10921,7 @@
       <c r="J199" t="s">
         <v>1207</v>
       </c>
-      <c r="K199" s="5" t="s">
+      <c r="K199" s="24" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -11202,6 +11199,9 @@
       </c>
       <c r="I210" s="17" t="s">
         <v>1296</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="255" x14ac:dyDescent="0.25">
@@ -23305,6 +23305,9 @@
     <row r="702" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:I705"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
